--- a/src/main/resources/configfile/testData.xlsx
+++ b/src/main/resources/configfile/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REST\GruuProject\src\main\resources\configfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F3782-39F9-4797-A93C-D1ED99A16243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE35EFF-E57E-4C38-B317-A070D3188930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>uid</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>mngr444993</t>
-  </si>
-  <si>
-    <t>UbysAmy</t>
-  </si>
-  <si>
-    <t>mngr444999</t>
   </si>
   <si>
     <t>UbysAmz</t>
@@ -385,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,22 +404,6 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
